--- a/biology/Médecine/Jean_Verdier_(médecin)/Jean_Verdier_(médecin).xlsx
+++ b/biology/Médecine/Jean_Verdier_(médecin)/Jean_Verdier_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Verdier_(m%C3%A9decin)</t>
+          <t>Jean_Verdier_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Verdier né le 27 avril 1735 à La Ferté-Bernard située dans le département de la Sarthe et mort le 6 juin 1820 à Paris[1]. Jean Verdier est un médecin et un avocat. Il a publié de nombreux ouvrages de médecine, d’éducation, de législation, de philosophie et de grammaire[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Verdier né le 27 avril 1735 à La Ferté-Bernard située dans le département de la Sarthe et mort le 6 juin 1820 à Paris. Jean Verdier est un médecin et un avocat. Il a publié de nombreux ouvrages de médecine, d’éducation, de législation, de philosophie et de grammaire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Verdier_(m%C3%A9decin)</t>
+          <t>Jean_Verdier_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Verdier fait ses études à l'Oratoire du Mans et devient en 1756 Maître es Arts à l’Université de Paris.
 Il est avocat au Parlement de Paris.
 En 1764, il devient agrégé honoraire à la Faculté de Médecine de Pont à Mousson.
 Il sera Médecin du roi Stanilas Leszczynski, Duc de Lorraine. 
-En 1773, il ouvre à Paris la pension Verdier, collège, maison de santé, pension de famille pour enfants retardés. Il y applique son propre système d’éducation[3].
+En 1773, il ouvre à Paris la pension Verdier, collège, maison de santé, pension de famille pour enfants retardés. Il y applique son propre système d’éducation.
 Jean Verdier eut pour élève Talma qui à 9 ans le jour des prix déclama "Tamerlan", tragédie composée par Verdier.
 Il collabore à l'Encyclopédie.
 En 1792 il devient Membre du Conseil Général de la commune de Paris (1792).
